--- a/BacklogFinal.xlsx
+++ b/BacklogFinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corn/Documents/TheHolyBier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16356E1-19F8-B747-9113-F6895C347DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C05BE5B-515A-4447-AF10-136246B76E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{70197DA3-C954-0F46-B9B0-60FE5B8B5FE1}"/>
   </bookViews>
@@ -134,19 +134,19 @@
     <t>Gaining gold and xp for level up</t>
   </si>
   <si>
-    <t>You died screen and bonus</t>
-  </si>
-  <si>
     <t>We have to lose a fight so that our hp is 0. This can be tested by pressing Boss Room and Escape a few times. Our hp will drop to 0 eventually.</t>
   </si>
   <si>
-    <t>On the You Died screen we can our stats of the run, called bonus. It is essentiallty our score, so that we can compete with ourselfs or other people.</t>
-  </si>
-  <si>
     <t>We have to decrease a boss' hp to 0 in order to kill the boss. This can be done by chosing Fight button several times. (In favorable conditions)</t>
   </si>
   <si>
     <t xml:space="preserve">If the boss is killed we get gold and xp as reward. If we hit the required xp, our character levels up, giving access to higher level items and heals.  </t>
+  </si>
+  <si>
+    <t>You died screen and score</t>
+  </si>
+  <si>
+    <t>On the You Died screen we can our stats of the run, called score. It is essentiallty our score, so that we can compete with ourselfs or other people.</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="75.83203125" defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -848,21 +848,21 @@
         <v>31</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="C13" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
